--- a/datenRF4/AFL/i=23,28, Fremdlüfter, Abtriebswelle=22/Prozesse_Stückliste_L1_S4_i23,28_Fremd.xlsx
+++ b/datenRF4/AFL/i=23,28, Fremdlüfter, Abtriebswelle=22/Prozesse_Stückliste_L1_S4_i23,28_Fremd.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="121">
   <si>
     <t>Sequenz</t>
   </si>
@@ -894,7 +894,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -928,9 +928,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -969,9 +966,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1036,6 +1030,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1320,10 +1323,10 @@
   <dimension ref="A1:U111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I100" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E108" sqref="E108:G108"/>
+      <selection pane="bottomRight" activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -1355,120 +1358,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" thickBot="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="80" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="73" t="s">
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="77" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="78"/>
-      <c r="E2" s="81" t="s">
+      <c r="D2" s="76"/>
+      <c r="E2" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="H3" s="58" t="s">
+      <c r="H3" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="33" t="s">
+      <c r="J3" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="L3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="M3" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="N3" s="34" t="s">
+      <c r="N3" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="O3" s="34" t="s">
+      <c r="O3" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="P3" s="34" t="s">
+      <c r="P3" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="Q3" s="34" t="s">
+      <c r="Q3" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="R3" s="34" t="s">
+      <c r="R3" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="S3" s="34" t="s">
+      <c r="S3" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="T3" s="35" t="s">
+      <c r="T3" s="34" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1478,8 +1481,8 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="72"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="70"/>
       <c r="H4" s="16">
         <v>0</v>
       </c>
@@ -1488,7 +1491,7 @@
         <v>3</v>
       </c>
       <c r="K4" s="16"/>
-      <c r="L4" s="40" t="s">
+      <c r="L4" s="39" t="s">
         <v>4</v>
       </c>
       <c r="M4" s="15" t="s">
@@ -1498,21 +1501,21 @@
       <c r="O4" s="16"/>
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
-      <c r="R4" s="43" t="s">
+      <c r="R4" s="42" t="s">
         <v>102</v>
       </c>
       <c r="S4" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="T4" s="44"/>
+      <c r="T4" s="43"/>
     </row>
     <row r="5" spans="1:20" ht="15" thickBot="1">
-      <c r="A5" s="38"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
       <c r="H5" s="23">
         <v>1</v>
       </c>
@@ -1521,7 +1524,7 @@
         <v>5</v>
       </c>
       <c r="K5" s="23"/>
-      <c r="L5" s="41"/>
+      <c r="L5" s="40"/>
       <c r="M5" s="24" t="s">
         <v>104</v>
       </c>
@@ -1533,7 +1536,7 @@
         <v>105</v>
       </c>
       <c r="S5" s="23"/>
-      <c r="T5" s="45"/>
+      <c r="T5" s="44"/>
     </row>
     <row r="6" spans="1:20" ht="41" customHeight="1">
       <c r="A6" s="4">
@@ -1551,7 +1554,7 @@
       <c r="E6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="58" t="s">
         <v>95</v>
       </c>
       <c r="G6" s="3"/>
@@ -1565,7 +1568,7 @@
         <v>6</v>
       </c>
       <c r="K6" s="23"/>
-      <c r="L6" s="28" t="s">
+      <c r="L6" s="27" t="s">
         <v>7</v>
       </c>
       <c r="M6" s="24" t="s">
@@ -1577,13 +1580,13 @@
       <c r="O6" s="23"/>
       <c r="P6" s="23"/>
       <c r="Q6" s="23"/>
-      <c r="R6" s="27" t="s">
+      <c r="R6" s="26" t="s">
         <v>102</v>
       </c>
       <c r="S6" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="T6" s="28">
+      <c r="T6" s="27">
         <v>1</v>
       </c>
     </row>
@@ -1600,18 +1603,18 @@
       <c r="D7" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="29"/>
+      <c r="G7" s="28"/>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
-      <c r="L7" s="28"/>
+      <c r="L7" s="27"/>
       <c r="M7" s="24"/>
       <c r="N7" s="23"/>
       <c r="O7" s="23"/>
@@ -1619,23 +1622,25 @@
       <c r="Q7" s="23"/>
       <c r="R7" s="23"/>
       <c r="S7" s="23"/>
-      <c r="T7" s="28"/>
+      <c r="T7" s="27"/>
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1">
       <c r="A8" s="19">
         <v>1</v>
       </c>
-      <c r="B8" s="47"/>
+      <c r="B8" s="84">
+        <v>3</v>
+      </c>
       <c r="C8" s="20">
         <v>1</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="62" t="s">
+      <c r="F8" s="60" t="s">
         <v>88</v>
       </c>
       <c r="G8" s="21">
@@ -1645,7 +1650,7 @@
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
-      <c r="L8" s="28"/>
+      <c r="L8" s="27"/>
       <c r="M8" s="24"/>
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
@@ -1653,7 +1658,7 @@
       <c r="Q8" s="23"/>
       <c r="R8" s="23"/>
       <c r="S8" s="23"/>
-      <c r="T8" s="28"/>
+      <c r="T8" s="27"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="24"/>
@@ -1672,7 +1677,7 @@
         <v>8</v>
       </c>
       <c r="K9" s="23"/>
-      <c r="L9" s="28" t="s">
+      <c r="L9" s="27" t="s">
         <v>9</v>
       </c>
       <c r="M9" s="24"/>
@@ -1682,7 +1687,7 @@
       <c r="Q9" s="23"/>
       <c r="R9" s="23"/>
       <c r="S9" s="23"/>
-      <c r="T9" s="28"/>
+      <c r="T9" s="27"/>
     </row>
     <row r="10" spans="1:20" ht="57" customHeight="1">
       <c r="A10" s="24"/>
@@ -1695,7 +1700,7 @@
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
-      <c r="L10" s="28"/>
+      <c r="L10" s="27"/>
       <c r="M10" s="24"/>
       <c r="N10" s="23"/>
       <c r="O10" s="23"/>
@@ -1703,7 +1708,7 @@
       <c r="Q10" s="23"/>
       <c r="R10" s="23"/>
       <c r="S10" s="23"/>
-      <c r="T10" s="28"/>
+      <c r="T10" s="27"/>
     </row>
     <row r="11" spans="1:20" ht="15" thickBot="1">
       <c r="A11" s="24"/>
@@ -1716,7 +1721,7 @@
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
-      <c r="L11" s="28"/>
+      <c r="L11" s="27"/>
       <c r="M11" s="24"/>
       <c r="N11" s="23"/>
       <c r="O11" s="23"/>
@@ -1724,7 +1729,7 @@
       <c r="Q11" s="23"/>
       <c r="R11" s="23"/>
       <c r="S11" s="23"/>
-      <c r="T11" s="28"/>
+      <c r="T11" s="27"/>
     </row>
     <row r="12" spans="1:20" ht="59.5" customHeight="1">
       <c r="A12" s="4">
@@ -1742,7 +1747,7 @@
       <c r="E12" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="60" t="s">
+      <c r="F12" s="58" t="s">
         <v>95</v>
       </c>
       <c r="G12" s="3"/>
@@ -1753,10 +1758,10 @@
         <v>76</v>
       </c>
       <c r="J12" s="23"/>
-      <c r="K12" s="27" t="s">
+      <c r="K12" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="L12" s="41" t="s">
+      <c r="L12" s="40" t="s">
         <v>10</v>
       </c>
       <c r="M12" s="24" t="s">
@@ -1768,13 +1773,13 @@
       <c r="O12" s="23"/>
       <c r="P12" s="23"/>
       <c r="Q12" s="23"/>
-      <c r="R12" s="27" t="s">
+      <c r="R12" s="26" t="s">
         <v>102</v>
       </c>
       <c r="S12" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="T12" s="28">
+      <c r="T12" s="27">
         <v>1</v>
       </c>
     </row>
@@ -1791,18 +1796,18 @@
       <c r="D13" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="61" t="s">
+      <c r="F13" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="29"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="41"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="40"/>
       <c r="M13" s="24"/>
       <c r="N13" s="23"/>
       <c r="O13" s="23"/>
@@ -1810,33 +1815,35 @@
       <c r="Q13" s="23"/>
       <c r="R13" s="23"/>
       <c r="S13" s="23"/>
-      <c r="T13" s="28"/>
+      <c r="T13" s="27"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="49">
-        <v>1</v>
-      </c>
-      <c r="B14" s="25"/>
+      <c r="A14" s="47">
+        <v>1</v>
+      </c>
+      <c r="B14" s="82">
+        <v>3</v>
+      </c>
       <c r="C14" s="22">
         <v>1</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="63" t="s">
+      <c r="F14" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="G14" s="51">
+      <c r="G14" s="49">
         <v>23255</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="41"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="40"/>
       <c r="M14" s="24"/>
       <c r="N14" s="23"/>
       <c r="O14" s="23"/>
@@ -1844,13 +1851,15 @@
       <c r="Q14" s="23"/>
       <c r="R14" s="23"/>
       <c r="S14" s="23"/>
-      <c r="T14" s="28"/>
+      <c r="T14" s="27"/>
     </row>
     <row r="15" spans="1:20" ht="15" thickBot="1">
       <c r="A15" s="10">
         <v>2</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="83">
+        <v>3</v>
+      </c>
       <c r="C15" s="12">
         <v>1</v>
       </c>
@@ -1860,7 +1869,7 @@
       <c r="E15" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="62" t="s">
         <v>67</v>
       </c>
       <c r="G15" s="14">
@@ -1869,8 +1878,8 @@
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="41"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="40"/>
       <c r="M15" s="24"/>
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
@@ -1878,7 +1887,7 @@
       <c r="Q15" s="23"/>
       <c r="R15" s="23"/>
       <c r="S15" s="23"/>
-      <c r="T15" s="28"/>
+      <c r="T15" s="27"/>
     </row>
     <row r="16" spans="1:20" ht="72.5">
       <c r="A16" s="24"/>
@@ -1894,10 +1903,10 @@
         <v>77</v>
       </c>
       <c r="J16" s="23"/>
-      <c r="K16" s="27" t="s">
+      <c r="K16" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="L16" s="41" t="s">
+      <c r="L16" s="40" t="s">
         <v>11</v>
       </c>
       <c r="M16" s="24"/>
@@ -1907,7 +1916,7 @@
       <c r="Q16" s="23"/>
       <c r="R16" s="23"/>
       <c r="S16" s="23"/>
-      <c r="T16" s="28"/>
+      <c r="T16" s="27"/>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="24"/>
@@ -1919,8 +1928,8 @@
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="41"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="40"/>
       <c r="M17" s="24"/>
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
@@ -1928,7 +1937,7 @@
       <c r="Q17" s="23"/>
       <c r="R17" s="23"/>
       <c r="S17" s="23"/>
-      <c r="T17" s="28"/>
+      <c r="T17" s="27"/>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="24"/>
@@ -1940,8 +1949,8 @@
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="41"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="40"/>
       <c r="M18" s="24"/>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
@@ -1949,7 +1958,7 @@
       <c r="Q18" s="23"/>
       <c r="R18" s="23"/>
       <c r="S18" s="23"/>
-      <c r="T18" s="28"/>
+      <c r="T18" s="27"/>
     </row>
     <row r="19" spans="1:20" ht="15" thickBot="1">
       <c r="A19" s="24"/>
@@ -1961,8 +1970,8 @@
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="41"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="40"/>
       <c r="M19" s="24"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
@@ -1970,7 +1979,7 @@
       <c r="Q19" s="23"/>
       <c r="R19" s="23"/>
       <c r="S19" s="23"/>
-      <c r="T19" s="28"/>
+      <c r="T19" s="27"/>
     </row>
     <row r="20" spans="1:20" ht="72.5">
       <c r="A20" s="4">
@@ -1988,7 +1997,7 @@
       <c r="E20" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="60" t="s">
+      <c r="F20" s="58" t="s">
         <v>95</v>
       </c>
       <c r="G20" s="3"/>
@@ -2002,7 +2011,7 @@
         <v>12</v>
       </c>
       <c r="K20" s="23"/>
-      <c r="L20" s="41" t="s">
+      <c r="L20" s="40" t="s">
         <v>13</v>
       </c>
       <c r="M20" s="24" t="s">
@@ -2014,41 +2023,41 @@
       <c r="O20" s="23"/>
       <c r="P20" s="23"/>
       <c r="Q20" s="23"/>
-      <c r="R20" s="27" t="s">
+      <c r="R20" s="26" t="s">
         <v>102</v>
       </c>
       <c r="S20" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="T20" s="28">
+      <c r="T20" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="15" thickBot="1">
-      <c r="A21" s="53">
+      <c r="A21" s="51">
         <v>2</v>
       </c>
-      <c r="B21" s="54">
+      <c r="B21" s="52">
         <v>2</v>
       </c>
-      <c r="C21" s="52">
-        <v>1</v>
-      </c>
-      <c r="D21" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="52" t="s">
+      <c r="C21" s="50">
+        <v>1</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="65" t="s">
+      <c r="F21" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="G21" s="55"/>
+      <c r="G21" s="53"/>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
-      <c r="L21" s="41"/>
+      <c r="L21" s="40"/>
       <c r="M21" s="24"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
@@ -2056,33 +2065,35 @@
       <c r="Q21" s="23"/>
       <c r="R21" s="23"/>
       <c r="S21" s="23"/>
-      <c r="T21" s="28"/>
+      <c r="T21" s="27"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="49">
-        <v>1</v>
-      </c>
-      <c r="B22" s="25"/>
+      <c r="A22" s="47">
+        <v>1</v>
+      </c>
+      <c r="B22" s="82">
+        <v>3</v>
+      </c>
       <c r="C22" s="22">
         <v>1</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="E22" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="F22" s="63" t="s">
+      <c r="F22" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="51">
+      <c r="G22" s="49">
         <v>23255</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
       <c r="J22" s="23"/>
       <c r="K22" s="23"/>
-      <c r="L22" s="41"/>
+      <c r="L22" s="40"/>
       <c r="M22" s="24"/>
       <c r="N22" s="23"/>
       <c r="O22" s="23"/>
@@ -2090,13 +2101,15 @@
       <c r="Q22" s="23"/>
       <c r="R22" s="23"/>
       <c r="S22" s="23"/>
-      <c r="T22" s="28"/>
+      <c r="T22" s="27"/>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="5">
         <v>2</v>
       </c>
-      <c r="B23" s="7"/>
+      <c r="B23" s="82">
+        <v>3</v>
+      </c>
       <c r="C23" s="7">
         <v>1</v>
       </c>
@@ -2106,7 +2119,7 @@
       <c r="E23" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="66" t="s">
+      <c r="F23" s="64" t="s">
         <v>67</v>
       </c>
       <c r="G23" s="9">
@@ -2116,7 +2129,7 @@
       <c r="I23" s="23"/>
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
-      <c r="L23" s="41"/>
+      <c r="L23" s="40"/>
       <c r="M23" s="24"/>
       <c r="N23" s="23"/>
       <c r="O23" s="23"/>
@@ -2124,13 +2137,15 @@
       <c r="Q23" s="23"/>
       <c r="R23" s="23"/>
       <c r="S23" s="23"/>
-      <c r="T23" s="28"/>
+      <c r="T23" s="27"/>
     </row>
     <row r="24" spans="1:20" ht="29.5" thickBot="1">
       <c r="A24" s="10">
         <v>3</v>
       </c>
-      <c r="B24" s="11"/>
+      <c r="B24" s="82">
+        <v>3</v>
+      </c>
       <c r="C24" s="12">
         <v>8</v>
       </c>
@@ -2140,7 +2155,7 @@
       <c r="E24" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="64" t="s">
+      <c r="F24" s="62" t="s">
         <v>69</v>
       </c>
       <c r="G24" s="14">
@@ -2150,7 +2165,7 @@
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
-      <c r="L24" s="41"/>
+      <c r="L24" s="40"/>
       <c r="M24" s="24"/>
       <c r="N24" s="23"/>
       <c r="O24" s="23"/>
@@ -2158,7 +2173,7 @@
       <c r="Q24" s="23"/>
       <c r="R24" s="23"/>
       <c r="S24" s="23"/>
-      <c r="T24" s="28"/>
+      <c r="T24" s="27"/>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="24"/>
@@ -2171,7 +2186,7 @@
       <c r="I25" s="23"/>
       <c r="J25" s="23"/>
       <c r="K25" s="23"/>
-      <c r="L25" s="41"/>
+      <c r="L25" s="40"/>
       <c r="M25" s="24"/>
       <c r="N25" s="23"/>
       <c r="O25" s="23"/>
@@ -2179,7 +2194,7 @@
       <c r="Q25" s="23"/>
       <c r="R25" s="23"/>
       <c r="S25" s="23"/>
-      <c r="T25" s="28"/>
+      <c r="T25" s="27"/>
     </row>
     <row r="26" spans="1:20" ht="29">
       <c r="A26" s="24"/>
@@ -2198,7 +2213,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="23"/>
-      <c r="L26" s="41" t="s">
+      <c r="L26" s="40" t="s">
         <v>15</v>
       </c>
       <c r="M26" s="24"/>
@@ -2208,7 +2223,7 @@
       <c r="Q26" s="23"/>
       <c r="R26" s="23"/>
       <c r="S26" s="23"/>
-      <c r="T26" s="28"/>
+      <c r="T26" s="27"/>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="24"/>
@@ -2221,7 +2236,7 @@
       <c r="I27" s="23"/>
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
-      <c r="L27" s="41"/>
+      <c r="L27" s="40"/>
       <c r="M27" s="24"/>
       <c r="N27" s="23"/>
       <c r="O27" s="23"/>
@@ -2229,7 +2244,7 @@
       <c r="Q27" s="23"/>
       <c r="R27" s="23"/>
       <c r="S27" s="23"/>
-      <c r="T27" s="28"/>
+      <c r="T27" s="27"/>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="24"/>
@@ -2242,7 +2257,7 @@
       <c r="I28" s="23"/>
       <c r="J28" s="23"/>
       <c r="K28" s="23"/>
-      <c r="L28" s="41"/>
+      <c r="L28" s="40"/>
       <c r="M28" s="24"/>
       <c r="N28" s="23"/>
       <c r="O28" s="23"/>
@@ -2250,7 +2265,7 @@
       <c r="Q28" s="23"/>
       <c r="R28" s="23"/>
       <c r="S28" s="23"/>
-      <c r="T28" s="28"/>
+      <c r="T28" s="27"/>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="24"/>
@@ -2263,7 +2278,7 @@
       <c r="I29" s="23"/>
       <c r="J29" s="23"/>
       <c r="K29" s="23"/>
-      <c r="L29" s="41"/>
+      <c r="L29" s="40"/>
       <c r="M29" s="24"/>
       <c r="N29" s="23"/>
       <c r="O29" s="23"/>
@@ -2271,7 +2286,7 @@
       <c r="Q29" s="23"/>
       <c r="R29" s="23"/>
       <c r="S29" s="23"/>
-      <c r="T29" s="28"/>
+      <c r="T29" s="27"/>
     </row>
     <row r="30" spans="1:20" ht="15" thickBot="1">
       <c r="A30" s="24"/>
@@ -2284,7 +2299,7 @@
       <c r="I30" s="23"/>
       <c r="J30" s="23"/>
       <c r="K30" s="23"/>
-      <c r="L30" s="41"/>
+      <c r="L30" s="40"/>
       <c r="M30" s="24"/>
       <c r="N30" s="23"/>
       <c r="O30" s="23"/>
@@ -2292,7 +2307,7 @@
       <c r="Q30" s="23"/>
       <c r="R30" s="23"/>
       <c r="S30" s="23"/>
-      <c r="T30" s="28"/>
+      <c r="T30" s="27"/>
     </row>
     <row r="31" spans="1:20" ht="72.5">
       <c r="A31" s="4">
@@ -2310,7 +2325,7 @@
       <c r="E31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F31" s="60" t="s">
+      <c r="F31" s="58" t="s">
         <v>95</v>
       </c>
       <c r="G31" s="3"/>
@@ -2324,7 +2339,7 @@
         <v>16</v>
       </c>
       <c r="K31" s="23"/>
-      <c r="L31" s="41" t="s">
+      <c r="L31" s="40" t="s">
         <v>17</v>
       </c>
       <c r="M31" s="24" t="s">
@@ -2336,41 +2351,41 @@
       <c r="O31" s="23"/>
       <c r="P31" s="23"/>
       <c r="Q31" s="23"/>
-      <c r="R31" s="27" t="s">
+      <c r="R31" s="26" t="s">
         <v>102</v>
       </c>
       <c r="S31" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="T31" s="28">
+      <c r="T31" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="15" thickBot="1">
-      <c r="A32" s="53">
+      <c r="A32" s="51">
         <v>2</v>
       </c>
-      <c r="B32" s="54">
+      <c r="B32" s="52">
         <v>2</v>
       </c>
-      <c r="C32" s="52">
-        <v>1</v>
-      </c>
-      <c r="D32" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="52" t="s">
+      <c r="C32" s="50">
+        <v>1</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="F32" s="65" t="s">
+      <c r="F32" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="G32" s="55"/>
+      <c r="G32" s="53"/>
       <c r="H32" s="23"/>
       <c r="I32" s="23"/>
       <c r="J32" s="23"/>
       <c r="K32" s="23"/>
-      <c r="L32" s="41"/>
+      <c r="L32" s="40"/>
       <c r="M32" s="24"/>
       <c r="N32" s="23"/>
       <c r="O32" s="23"/>
@@ -2378,33 +2393,35 @@
       <c r="Q32" s="23"/>
       <c r="R32" s="23"/>
       <c r="S32" s="23"/>
-      <c r="T32" s="28"/>
+      <c r="T32" s="27"/>
     </row>
     <row r="33" spans="1:20">
-      <c r="A33" s="49">
-        <v>1</v>
-      </c>
-      <c r="B33" s="25"/>
+      <c r="A33" s="47">
+        <v>1</v>
+      </c>
+      <c r="B33" s="82">
+        <v>3</v>
+      </c>
       <c r="C33" s="22">
         <v>1</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="50" t="s">
+      <c r="E33" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="F33" s="63" t="s">
+      <c r="F33" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="G33" s="51">
+      <c r="G33" s="49">
         <v>23255</v>
       </c>
       <c r="H33" s="23"/>
       <c r="I33" s="23"/>
       <c r="J33" s="23"/>
       <c r="K33" s="23"/>
-      <c r="L33" s="41"/>
+      <c r="L33" s="40"/>
       <c r="M33" s="24"/>
       <c r="N33" s="23"/>
       <c r="O33" s="23"/>
@@ -2412,13 +2429,15 @@
       <c r="Q33" s="23"/>
       <c r="R33" s="23"/>
       <c r="S33" s="23"/>
-      <c r="T33" s="28"/>
+      <c r="T33" s="27"/>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="5">
         <v>2</v>
       </c>
-      <c r="B34" s="7"/>
+      <c r="B34" s="82">
+        <v>3</v>
+      </c>
       <c r="C34" s="7">
         <v>1</v>
       </c>
@@ -2428,7 +2447,7 @@
       <c r="E34" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F34" s="66" t="s">
+      <c r="F34" s="64" t="s">
         <v>67</v>
       </c>
       <c r="G34" s="9">
@@ -2438,7 +2457,7 @@
       <c r="I34" s="23"/>
       <c r="J34" s="23"/>
       <c r="K34" s="23"/>
-      <c r="L34" s="41"/>
+      <c r="L34" s="40"/>
       <c r="M34" s="24"/>
       <c r="N34" s="23"/>
       <c r="O34" s="23"/>
@@ -2446,13 +2465,15 @@
       <c r="Q34" s="23"/>
       <c r="R34" s="23"/>
       <c r="S34" s="23"/>
-      <c r="T34" s="28"/>
+      <c r="T34" s="27"/>
     </row>
     <row r="35" spans="1:20" ht="29.5" thickBot="1">
       <c r="A35" s="10">
         <v>3</v>
       </c>
-      <c r="B35" s="11"/>
+      <c r="B35" s="82">
+        <v>3</v>
+      </c>
       <c r="C35" s="12">
         <v>8</v>
       </c>
@@ -2462,7 +2483,7 @@
       <c r="E35" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F35" s="64" t="s">
+      <c r="F35" s="62" t="s">
         <v>69</v>
       </c>
       <c r="G35" s="14">
@@ -2472,7 +2493,7 @@
       <c r="I35" s="23"/>
       <c r="J35" s="23"/>
       <c r="K35" s="23"/>
-      <c r="L35" s="41"/>
+      <c r="L35" s="40"/>
       <c r="M35" s="24"/>
       <c r="N35" s="23"/>
       <c r="O35" s="23"/>
@@ -2480,7 +2501,7 @@
       <c r="Q35" s="23"/>
       <c r="R35" s="23"/>
       <c r="S35" s="23"/>
-      <c r="T35" s="28"/>
+      <c r="T35" s="27"/>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="24"/>
@@ -2493,7 +2514,7 @@
       <c r="I36" s="23"/>
       <c r="J36" s="23"/>
       <c r="K36" s="23"/>
-      <c r="L36" s="41"/>
+      <c r="L36" s="40"/>
       <c r="M36" s="24"/>
       <c r="N36" s="23"/>
       <c r="O36" s="23"/>
@@ -2501,7 +2522,7 @@
       <c r="Q36" s="23"/>
       <c r="R36" s="23"/>
       <c r="S36" s="23"/>
-      <c r="T36" s="28"/>
+      <c r="T36" s="27"/>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="24"/>
@@ -2514,7 +2535,7 @@
       <c r="I37" s="23"/>
       <c r="J37" s="23"/>
       <c r="K37" s="23"/>
-      <c r="L37" s="41"/>
+      <c r="L37" s="40"/>
       <c r="M37" s="24"/>
       <c r="N37" s="23"/>
       <c r="O37" s="23"/>
@@ -2522,7 +2543,7 @@
       <c r="Q37" s="23"/>
       <c r="R37" s="23"/>
       <c r="S37" s="23"/>
-      <c r="T37" s="28"/>
+      <c r="T37" s="27"/>
     </row>
     <row r="38" spans="1:20" ht="29">
       <c r="A38" s="24"/>
@@ -2541,7 +2562,7 @@
         <v>18</v>
       </c>
       <c r="K38" s="23"/>
-      <c r="L38" s="41" t="s">
+      <c r="L38" s="40" t="s">
         <v>17</v>
       </c>
       <c r="M38" s="24"/>
@@ -2551,7 +2572,7 @@
       <c r="Q38" s="23"/>
       <c r="R38" s="23"/>
       <c r="S38" s="23"/>
-      <c r="T38" s="28"/>
+      <c r="T38" s="27"/>
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="24"/>
@@ -2564,7 +2585,7 @@
       <c r="I39" s="23"/>
       <c r="J39" s="23"/>
       <c r="K39" s="23"/>
-      <c r="L39" s="41"/>
+      <c r="L39" s="40"/>
       <c r="M39" s="24"/>
       <c r="N39" s="23"/>
       <c r="O39" s="23"/>
@@ -2572,7 +2593,7 @@
       <c r="Q39" s="23"/>
       <c r="R39" s="23"/>
       <c r="S39" s="23"/>
-      <c r="T39" s="28"/>
+      <c r="T39" s="27"/>
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="24"/>
@@ -2585,7 +2606,7 @@
       <c r="I40" s="23"/>
       <c r="J40" s="23"/>
       <c r="K40" s="23"/>
-      <c r="L40" s="41"/>
+      <c r="L40" s="40"/>
       <c r="M40" s="24"/>
       <c r="N40" s="23"/>
       <c r="O40" s="23"/>
@@ -2593,7 +2614,7 @@
       <c r="Q40" s="23"/>
       <c r="R40" s="23"/>
       <c r="S40" s="23"/>
-      <c r="T40" s="28"/>
+      <c r="T40" s="27"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="24"/>
@@ -2606,7 +2627,7 @@
       <c r="I41" s="23"/>
       <c r="J41" s="23"/>
       <c r="K41" s="23"/>
-      <c r="L41" s="41"/>
+      <c r="L41" s="40"/>
       <c r="M41" s="24"/>
       <c r="N41" s="23"/>
       <c r="O41" s="23"/>
@@ -2614,7 +2635,7 @@
       <c r="Q41" s="23"/>
       <c r="R41" s="23"/>
       <c r="S41" s="23"/>
-      <c r="T41" s="28"/>
+      <c r="T41" s="27"/>
     </row>
     <row r="42" spans="1:20" ht="15" thickBot="1">
       <c r="A42" s="24"/>
@@ -2627,7 +2648,7 @@
       <c r="I42" s="23"/>
       <c r="J42" s="23"/>
       <c r="K42" s="23"/>
-      <c r="L42" s="41"/>
+      <c r="L42" s="40"/>
       <c r="M42" s="24"/>
       <c r="N42" s="23"/>
       <c r="O42" s="23"/>
@@ -2635,7 +2656,7 @@
       <c r="Q42" s="23"/>
       <c r="R42" s="23"/>
       <c r="S42" s="23"/>
-      <c r="T42" s="28"/>
+      <c r="T42" s="27"/>
     </row>
     <row r="43" spans="1:20" ht="58">
       <c r="A43" s="4">
@@ -2653,7 +2674,7 @@
       <c r="E43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F43" s="60" t="s">
+      <c r="F43" s="58" t="s">
         <v>95</v>
       </c>
       <c r="G43" s="3"/>
@@ -2667,7 +2688,7 @@
         <v>19</v>
       </c>
       <c r="K43" s="23"/>
-      <c r="L43" s="28" t="s">
+      <c r="L43" s="27" t="s">
         <v>20</v>
       </c>
       <c r="M43" s="24" t="s">
@@ -2683,79 +2704,81 @@
       <c r="Q43" s="23">
         <v>1.8</v>
       </c>
-      <c r="R43" s="27" t="s">
+      <c r="R43" s="26" t="s">
         <v>108</v>
       </c>
       <c r="S43" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="T43" s="28"/>
+      <c r="T43" s="27"/>
     </row>
     <row r="44" spans="1:20" ht="29.5" thickBot="1">
-      <c r="A44" s="53">
+      <c r="A44" s="51">
         <v>2</v>
       </c>
-      <c r="B44" s="54">
+      <c r="B44" s="52">
         <v>2</v>
       </c>
-      <c r="C44" s="52">
-        <v>1</v>
-      </c>
-      <c r="D44" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="E44" s="52" t="s">
+      <c r="C44" s="50">
+        <v>1</v>
+      </c>
+      <c r="D44" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="F44" s="65" t="s">
+      <c r="F44" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="G44" s="55"/>
+      <c r="G44" s="53"/>
       <c r="H44" s="23"/>
       <c r="I44" s="23"/>
       <c r="J44" s="23"/>
       <c r="K44" s="23"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="46" t="s">
+      <c r="L44" s="27"/>
+      <c r="M44" s="45" t="s">
         <v>110</v>
       </c>
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
       <c r="P44" s="23"/>
       <c r="Q44" s="23"/>
-      <c r="R44" s="27" t="s">
+      <c r="R44" s="26" t="s">
         <v>111</v>
       </c>
       <c r="S44" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="T44" s="28"/>
+      <c r="T44" s="27"/>
     </row>
     <row r="45" spans="1:20">
-      <c r="A45" s="49">
-        <v>1</v>
-      </c>
-      <c r="B45" s="25"/>
+      <c r="A45" s="47">
+        <v>1</v>
+      </c>
+      <c r="B45" s="82">
+        <v>3</v>
+      </c>
       <c r="C45" s="22">
         <v>1</v>
       </c>
       <c r="D45" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E45" s="50" t="s">
+      <c r="E45" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="F45" s="63" t="s">
+      <c r="F45" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="G45" s="51">
+      <c r="G45" s="49">
         <v>23255</v>
       </c>
       <c r="H45" s="23"/>
       <c r="I45" s="23"/>
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
-      <c r="L45" s="28"/>
+      <c r="L45" s="27"/>
       <c r="M45" s="24"/>
       <c r="N45" s="23"/>
       <c r="O45" s="23"/>
@@ -2763,13 +2786,15 @@
       <c r="Q45" s="23"/>
       <c r="R45" s="23"/>
       <c r="S45" s="23"/>
-      <c r="T45" s="28"/>
+      <c r="T45" s="27"/>
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="5">
         <v>2</v>
       </c>
-      <c r="B46" s="7"/>
+      <c r="B46" s="82">
+        <v>3</v>
+      </c>
       <c r="C46" s="7">
         <v>1</v>
       </c>
@@ -2779,7 +2804,7 @@
       <c r="E46" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F46" s="66" t="s">
+      <c r="F46" s="64" t="s">
         <v>67</v>
       </c>
       <c r="G46" s="9">
@@ -2789,7 +2814,7 @@
       <c r="I46" s="23"/>
       <c r="J46" s="23"/>
       <c r="K46" s="23"/>
-      <c r="L46" s="28"/>
+      <c r="L46" s="27"/>
       <c r="M46" s="24"/>
       <c r="N46" s="23"/>
       <c r="O46" s="23"/>
@@ -2797,13 +2822,15 @@
       <c r="Q46" s="23"/>
       <c r="R46" s="23"/>
       <c r="S46" s="23"/>
-      <c r="T46" s="28"/>
+      <c r="T46" s="27"/>
     </row>
     <row r="47" spans="1:20" ht="29.5" thickBot="1">
       <c r="A47" s="10">
         <v>3</v>
       </c>
-      <c r="B47" s="11"/>
+      <c r="B47" s="82">
+        <v>3</v>
+      </c>
       <c r="C47" s="12">
         <v>8</v>
       </c>
@@ -2813,7 +2840,7 @@
       <c r="E47" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F47" s="64" t="s">
+      <c r="F47" s="62" t="s">
         <v>69</v>
       </c>
       <c r="G47" s="14">
@@ -2823,7 +2850,7 @@
       <c r="I47" s="23"/>
       <c r="J47" s="23"/>
       <c r="K47" s="23"/>
-      <c r="L47" s="28"/>
+      <c r="L47" s="27"/>
       <c r="M47" s="24"/>
       <c r="N47" s="23"/>
       <c r="O47" s="23"/>
@@ -2831,7 +2858,7 @@
       <c r="Q47" s="23"/>
       <c r="R47" s="23"/>
       <c r="S47" s="23"/>
-      <c r="T47" s="28"/>
+      <c r="T47" s="27"/>
     </row>
     <row r="48" spans="1:20" ht="15" thickBot="1">
       <c r="A48" s="24"/>
@@ -2850,7 +2877,7 @@
         <v>21</v>
       </c>
       <c r="K48" s="23"/>
-      <c r="L48" s="28" t="s">
+      <c r="L48" s="27" t="s">
         <v>20</v>
       </c>
       <c r="M48" s="24"/>
@@ -2860,7 +2887,7 @@
       <c r="Q48" s="23"/>
       <c r="R48" s="23"/>
       <c r="S48" s="23"/>
-      <c r="T48" s="28"/>
+      <c r="T48" s="27"/>
     </row>
     <row r="49" spans="1:20" ht="72.5">
       <c r="A49" s="4">
@@ -2878,7 +2905,7 @@
       <c r="E49" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F49" s="60" t="s">
+      <c r="F49" s="58" t="s">
         <v>95</v>
       </c>
       <c r="G49" s="3"/>
@@ -2889,10 +2916,10 @@
         <v>76</v>
       </c>
       <c r="J49" s="23"/>
-      <c r="K49" s="27" t="s">
+      <c r="K49" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="L49" s="41" t="s">
+      <c r="L49" s="40" t="s">
         <v>22</v>
       </c>
       <c r="M49" s="24" t="s">
@@ -2904,13 +2931,13 @@
       <c r="O49" s="23"/>
       <c r="P49" s="23"/>
       <c r="Q49" s="23"/>
-      <c r="R49" s="27" t="s">
+      <c r="R49" s="26" t="s">
         <v>102</v>
       </c>
       <c r="S49" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="T49" s="28">
+      <c r="T49" s="27">
         <v>1</v>
       </c>
     </row>
@@ -2930,15 +2957,15 @@
       <c r="E50" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F50" s="67" t="s">
+      <c r="F50" s="65" t="s">
         <v>89</v>
       </c>
       <c r="G50" s="8"/>
       <c r="H50" s="23"/>
       <c r="I50" s="23"/>
       <c r="J50" s="23"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="41"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="40"/>
       <c r="M50" s="24"/>
       <c r="N50" s="23"/>
       <c r="O50" s="23"/>
@@ -2946,25 +2973,33 @@
       <c r="Q50" s="23"/>
       <c r="R50" s="23"/>
       <c r="S50" s="23"/>
-      <c r="T50" s="28"/>
+      <c r="T50" s="27"/>
     </row>
     <row r="51" spans="1:20" ht="15" thickBot="1">
-      <c r="A51" s="53"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="52" t="s">
+      <c r="A51" s="51">
+        <v>3</v>
+      </c>
+      <c r="B51" s="52">
+        <v>2</v>
+      </c>
+      <c r="C51" s="50">
+        <v>1</v>
+      </c>
+      <c r="D51" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="F51" s="65" t="s">
+      <c r="F51" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="G51" s="55"/>
+      <c r="G51" s="53"/>
       <c r="H51" s="23"/>
       <c r="I51" s="23"/>
       <c r="J51" s="23"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="41"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="40"/>
       <c r="M51" s="24"/>
       <c r="N51" s="23"/>
       <c r="O51" s="23"/>
@@ -2972,27 +3007,35 @@
       <c r="Q51" s="23"/>
       <c r="R51" s="23"/>
       <c r="S51" s="23"/>
-      <c r="T51" s="28"/>
+      <c r="T51" s="27"/>
     </row>
     <row r="52" spans="1:20" ht="15" thickBot="1">
-      <c r="A52" s="19"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
+      <c r="A52" s="19">
+        <v>1</v>
+      </c>
+      <c r="B52" s="20">
+        <v>3</v>
+      </c>
+      <c r="C52" s="20">
+        <v>1</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="E52" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="F52" s="68" t="s">
+      <c r="F52" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="G52" s="56">
+      <c r="G52" s="54">
         <v>11322</v>
       </c>
       <c r="H52" s="23"/>
       <c r="I52" s="23"/>
       <c r="J52" s="23"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="41"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="40"/>
       <c r="M52" s="24"/>
       <c r="N52" s="23"/>
       <c r="O52" s="23"/>
@@ -3000,11 +3043,13 @@
       <c r="Q52" s="23"/>
       <c r="R52" s="23"/>
       <c r="S52" s="23"/>
-      <c r="T52" s="28"/>
+      <c r="T52" s="27"/>
     </row>
     <row r="53" spans="1:20" ht="15" thickBot="1">
       <c r="A53" s="24"/>
-      <c r="B53" s="23"/>
+      <c r="B53" s="23">
+        <v>3</v>
+      </c>
       <c r="C53" s="23"/>
       <c r="D53" s="23"/>
       <c r="E53" s="23"/>
@@ -3012,8 +3057,8 @@
       <c r="H53" s="23"/>
       <c r="I53" s="23"/>
       <c r="J53" s="23"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="41"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="40"/>
       <c r="M53" s="24"/>
       <c r="N53" s="23"/>
       <c r="O53" s="23"/>
@@ -3021,7 +3066,7 @@
       <c r="Q53" s="23"/>
       <c r="R53" s="23"/>
       <c r="S53" s="23"/>
-      <c r="T53" s="28"/>
+      <c r="T53" s="27"/>
     </row>
     <row r="54" spans="1:20" ht="72.5">
       <c r="A54" s="4">
@@ -3039,7 +3084,7 @@
       <c r="E54" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F54" s="60" t="s">
+      <c r="F54" s="58" t="s">
         <v>95</v>
       </c>
       <c r="G54" s="3"/>
@@ -3053,7 +3098,7 @@
         <v>23</v>
       </c>
       <c r="K54" s="23"/>
-      <c r="L54" s="41" t="s">
+      <c r="L54" s="40" t="s">
         <v>24</v>
       </c>
       <c r="M54" s="24" t="s">
@@ -3065,13 +3110,13 @@
       <c r="O54" s="23"/>
       <c r="P54" s="23"/>
       <c r="Q54" s="23"/>
-      <c r="R54" s="27" t="s">
+      <c r="R54" s="26" t="s">
         <v>102</v>
       </c>
       <c r="S54" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="T54" s="28">
+      <c r="T54" s="27">
         <v>1</v>
       </c>
     </row>
@@ -3091,7 +3136,7 @@
       <c r="E55" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F55" s="67" t="s">
+      <c r="F55" s="65" t="s">
         <v>89</v>
       </c>
       <c r="G55" s="8"/>
@@ -3099,7 +3144,7 @@
       <c r="I55" s="23"/>
       <c r="J55" s="23"/>
       <c r="K55" s="23"/>
-      <c r="L55" s="41"/>
+      <c r="L55" s="40"/>
       <c r="M55" s="24"/>
       <c r="N55" s="23"/>
       <c r="O55" s="23"/>
@@ -3107,29 +3152,33 @@
       <c r="Q55" s="23"/>
       <c r="R55" s="23"/>
       <c r="S55" s="23"/>
-      <c r="T55" s="28"/>
+      <c r="T55" s="27"/>
     </row>
     <row r="56" spans="1:20" ht="15" thickBot="1">
-      <c r="A56" s="53"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="52">
-        <v>1</v>
-      </c>
-      <c r="D56" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="E56" s="52" t="s">
+      <c r="A56" s="51">
+        <v>3</v>
+      </c>
+      <c r="B56" s="52">
+        <v>2</v>
+      </c>
+      <c r="C56" s="50">
+        <v>1</v>
+      </c>
+      <c r="D56" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E56" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="F56" s="65" t="s">
+      <c r="F56" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="G56" s="55"/>
+      <c r="G56" s="53"/>
       <c r="H56" s="23"/>
       <c r="I56" s="23"/>
       <c r="J56" s="23"/>
       <c r="K56" s="23"/>
-      <c r="L56" s="41"/>
+      <c r="L56" s="40"/>
       <c r="M56" s="24"/>
       <c r="N56" s="23"/>
       <c r="O56" s="23"/>
@@ -3137,11 +3186,15 @@
       <c r="Q56" s="23"/>
       <c r="R56" s="23"/>
       <c r="S56" s="23"/>
-      <c r="T56" s="28"/>
+      <c r="T56" s="27"/>
     </row>
     <row r="57" spans="1:20">
-      <c r="A57" s="49"/>
-      <c r="B57" s="22"/>
+      <c r="A57" s="47">
+        <v>1</v>
+      </c>
+      <c r="B57" s="22">
+        <v>3</v>
+      </c>
       <c r="C57" s="22">
         <v>1</v>
       </c>
@@ -3151,17 +3204,17 @@
       <c r="E57" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F57" s="69" t="s">
+      <c r="F57" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="G57" s="57">
+      <c r="G57" s="55">
         <v>11322</v>
       </c>
       <c r="H57" s="23"/>
       <c r="I57" s="23"/>
       <c r="J57" s="23"/>
       <c r="K57" s="23"/>
-      <c r="L57" s="41"/>
+      <c r="L57" s="40"/>
       <c r="M57" s="24"/>
       <c r="N57" s="23"/>
       <c r="O57" s="23"/>
@@ -3169,12 +3222,16 @@
       <c r="Q57" s="23"/>
       <c r="R57" s="23"/>
       <c r="S57" s="23"/>
-      <c r="T57" s="28"/>
+      <c r="T57" s="27"/>
     </row>
     <row r="58" spans="1:20" ht="15" thickBot="1">
-      <c r="A58" s="10"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="37">
+      <c r="A58" s="10">
+        <v>2</v>
+      </c>
+      <c r="B58" s="12">
+        <v>3</v>
+      </c>
+      <c r="C58" s="36">
         <v>6</v>
       </c>
       <c r="D58" s="12" t="s">
@@ -3183,7 +3240,7 @@
       <c r="E58" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="F58" s="70" t="s">
+      <c r="F58" s="68" t="s">
         <v>69</v>
       </c>
       <c r="G58" s="14">
@@ -3193,7 +3250,7 @@
       <c r="I58" s="23"/>
       <c r="J58" s="23"/>
       <c r="K58" s="23"/>
-      <c r="L58" s="41"/>
+      <c r="L58" s="40"/>
       <c r="M58" s="24"/>
       <c r="N58" s="23"/>
       <c r="O58" s="23"/>
@@ -3201,7 +3258,7 @@
       <c r="Q58" s="23"/>
       <c r="R58" s="23"/>
       <c r="S58" s="23"/>
-      <c r="T58" s="28"/>
+      <c r="T58" s="27"/>
     </row>
     <row r="59" spans="1:20" ht="15" thickBot="1">
       <c r="A59" s="24"/>
@@ -3214,7 +3271,7 @@
       <c r="I59" s="23"/>
       <c r="J59" s="23"/>
       <c r="K59" s="23"/>
-      <c r="L59" s="41"/>
+      <c r="L59" s="40"/>
       <c r="M59" s="24"/>
       <c r="N59" s="23"/>
       <c r="O59" s="23"/>
@@ -3222,7 +3279,7 @@
       <c r="Q59" s="23"/>
       <c r="R59" s="23"/>
       <c r="S59" s="23"/>
-      <c r="T59" s="28"/>
+      <c r="T59" s="27"/>
     </row>
     <row r="60" spans="1:20" ht="58">
       <c r="A60" s="4">
@@ -3240,7 +3297,7 @@
       <c r="E60" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F60" s="60" t="s">
+      <c r="F60" s="58" t="s">
         <v>95</v>
       </c>
       <c r="G60" s="3"/>
@@ -3254,7 +3311,7 @@
         <v>25</v>
       </c>
       <c r="K60" s="23"/>
-      <c r="L60" s="41" t="s">
+      <c r="L60" s="40" t="s">
         <v>26</v>
       </c>
       <c r="M60" s="24" t="s">
@@ -3270,13 +3327,13 @@
       <c r="Q60" s="23">
         <v>2.8</v>
       </c>
-      <c r="R60" s="27" t="s">
+      <c r="R60" s="26" t="s">
         <v>108</v>
       </c>
       <c r="S60" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="T60" s="28"/>
+      <c r="T60" s="27"/>
     </row>
     <row r="61" spans="1:20" ht="29">
       <c r="A61" s="5">
@@ -3294,7 +3351,7 @@
       <c r="E61" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F61" s="67" t="s">
+      <c r="F61" s="65" t="s">
         <v>89</v>
       </c>
       <c r="G61" s="8"/>
@@ -3308,45 +3365,49 @@
         <v>27</v>
       </c>
       <c r="K61" s="23"/>
-      <c r="L61" s="28" t="s">
+      <c r="L61" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="M61" s="46" t="s">
+      <c r="M61" s="45" t="s">
         <v>110</v>
       </c>
       <c r="N61" s="23"/>
       <c r="O61" s="23"/>
       <c r="P61" s="23"/>
       <c r="Q61" s="23"/>
-      <c r="R61" s="27" t="s">
+      <c r="R61" s="26" t="s">
         <v>111</v>
       </c>
       <c r="S61" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="T61" s="28"/>
+      <c r="T61" s="27"/>
     </row>
     <row r="62" spans="1:20" ht="15" thickBot="1">
-      <c r="A62" s="53"/>
-      <c r="B62" s="52"/>
-      <c r="C62" s="52">
-        <v>1</v>
-      </c>
-      <c r="D62" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="E62" s="52" t="s">
+      <c r="A62" s="51">
+        <v>3</v>
+      </c>
+      <c r="B62" s="50">
+        <v>2</v>
+      </c>
+      <c r="C62" s="50">
+        <v>1</v>
+      </c>
+      <c r="D62" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E62" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="F62" s="65" t="s">
+      <c r="F62" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="G62" s="55"/>
+      <c r="G62" s="53"/>
       <c r="H62" s="23"/>
       <c r="I62" s="23"/>
       <c r="J62" s="23"/>
       <c r="K62" s="23"/>
-      <c r="L62" s="41"/>
+      <c r="L62" s="40"/>
       <c r="M62" s="24"/>
       <c r="N62" s="23"/>
       <c r="O62" s="23"/>
@@ -3354,11 +3415,15 @@
       <c r="Q62" s="23"/>
       <c r="R62" s="23"/>
       <c r="S62" s="23"/>
-      <c r="T62" s="28"/>
+      <c r="T62" s="27"/>
     </row>
     <row r="63" spans="1:20">
-      <c r="A63" s="49"/>
-      <c r="B63" s="22"/>
+      <c r="A63" s="47">
+        <v>1</v>
+      </c>
+      <c r="B63" s="22">
+        <v>3</v>
+      </c>
       <c r="C63" s="22">
         <v>1</v>
       </c>
@@ -3368,17 +3433,17 @@
       <c r="E63" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F63" s="69" t="s">
+      <c r="F63" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="G63" s="57">
+      <c r="G63" s="55">
         <v>11322</v>
       </c>
       <c r="H63" s="23"/>
       <c r="I63" s="23"/>
       <c r="J63" s="23"/>
       <c r="K63" s="23"/>
-      <c r="L63" s="41"/>
+      <c r="L63" s="40"/>
       <c r="M63" s="24"/>
       <c r="N63" s="23"/>
       <c r="O63" s="23"/>
@@ -3386,12 +3451,16 @@
       <c r="Q63" s="23"/>
       <c r="R63" s="23"/>
       <c r="S63" s="23"/>
-      <c r="T63" s="28"/>
+      <c r="T63" s="27"/>
     </row>
     <row r="64" spans="1:20" ht="15" thickBot="1">
-      <c r="A64" s="10"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="37">
+      <c r="A64" s="10">
+        <v>2</v>
+      </c>
+      <c r="B64" s="12">
+        <v>3</v>
+      </c>
+      <c r="C64" s="36">
         <v>6</v>
       </c>
       <c r="D64" s="12" t="s">
@@ -3400,7 +3469,7 @@
       <c r="E64" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="F64" s="70" t="s">
+      <c r="F64" s="68" t="s">
         <v>69</v>
       </c>
       <c r="G64" s="14">
@@ -3410,7 +3479,7 @@
       <c r="I64" s="23"/>
       <c r="J64" s="23"/>
       <c r="K64" s="23"/>
-      <c r="L64" s="41"/>
+      <c r="L64" s="40"/>
       <c r="M64" s="24"/>
       <c r="N64" s="23"/>
       <c r="O64" s="23"/>
@@ -3418,7 +3487,7 @@
       <c r="Q64" s="23"/>
       <c r="R64" s="23"/>
       <c r="S64" s="23"/>
-      <c r="T64" s="28"/>
+      <c r="T64" s="27"/>
     </row>
     <row r="65" spans="1:20">
       <c r="A65" s="24"/>
@@ -3431,7 +3500,7 @@
       <c r="I65" s="23"/>
       <c r="J65" s="23"/>
       <c r="K65" s="23"/>
-      <c r="L65" s="28"/>
+      <c r="L65" s="27"/>
       <c r="M65" s="24"/>
       <c r="N65" s="23"/>
       <c r="O65" s="23"/>
@@ -3439,7 +3508,7 @@
       <c r="Q65" s="23"/>
       <c r="R65" s="23"/>
       <c r="S65" s="23"/>
-      <c r="T65" s="28"/>
+      <c r="T65" s="27"/>
     </row>
     <row r="66" spans="1:20" ht="43.5">
       <c r="A66" s="24"/>
@@ -3458,7 +3527,7 @@
         <v>28</v>
       </c>
       <c r="K66" s="23"/>
-      <c r="L66" s="41" t="s">
+      <c r="L66" s="40" t="s">
         <v>29</v>
       </c>
       <c r="M66" s="24"/>
@@ -3468,7 +3537,7 @@
       <c r="Q66" s="23"/>
       <c r="R66" s="23"/>
       <c r="S66" s="23"/>
-      <c r="T66" s="28"/>
+      <c r="T66" s="27"/>
     </row>
     <row r="67" spans="1:20" ht="43.5">
       <c r="A67" s="24"/>
@@ -3487,7 +3556,7 @@
         <v>28</v>
       </c>
       <c r="K67" s="23"/>
-      <c r="L67" s="41" t="s">
+      <c r="L67" s="40" t="s">
         <v>30</v>
       </c>
       <c r="M67" s="24"/>
@@ -3497,7 +3566,7 @@
       <c r="Q67" s="23"/>
       <c r="R67" s="23"/>
       <c r="S67" s="23"/>
-      <c r="T67" s="28"/>
+      <c r="T67" s="27"/>
     </row>
     <row r="68" spans="1:20" ht="43.5">
       <c r="A68" s="24"/>
@@ -3516,7 +3585,7 @@
         <v>28</v>
       </c>
       <c r="K68" s="23"/>
-      <c r="L68" s="41" t="s">
+      <c r="L68" s="40" t="s">
         <v>31</v>
       </c>
       <c r="M68" s="24"/>
@@ -3526,7 +3595,7 @@
       <c r="Q68" s="23"/>
       <c r="R68" s="23"/>
       <c r="S68" s="23"/>
-      <c r="T68" s="28"/>
+      <c r="T68" s="27"/>
     </row>
     <row r="69" spans="1:20" ht="44" thickBot="1">
       <c r="A69" s="24"/>
@@ -3545,7 +3614,7 @@
         <v>28</v>
       </c>
       <c r="K69" s="23"/>
-      <c r="L69" s="41" t="s">
+      <c r="L69" s="40" t="s">
         <v>32</v>
       </c>
       <c r="M69" s="24"/>
@@ -3555,7 +3624,7 @@
       <c r="Q69" s="23"/>
       <c r="R69" s="23"/>
       <c r="S69" s="23"/>
-      <c r="T69" s="28"/>
+      <c r="T69" s="27"/>
     </row>
     <row r="70" spans="1:20" ht="72.5">
       <c r="A70" s="4">
@@ -3573,7 +3642,7 @@
       <c r="E70" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F70" s="60" t="s">
+      <c r="F70" s="58" t="s">
         <v>95</v>
       </c>
       <c r="G70" s="3"/>
@@ -3584,10 +3653,10 @@
         <v>82</v>
       </c>
       <c r="J70" s="23"/>
-      <c r="K70" s="27" t="s">
+      <c r="K70" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="L70" s="41" t="s">
+      <c r="L70" s="40" t="s">
         <v>33</v>
       </c>
       <c r="M70" s="24" t="s">
@@ -3599,13 +3668,13 @@
       <c r="O70" s="23"/>
       <c r="P70" s="23"/>
       <c r="Q70" s="23"/>
-      <c r="R70" s="27" t="s">
+      <c r="R70" s="26" t="s">
         <v>102</v>
       </c>
       <c r="S70" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="T70" s="28">
+      <c r="T70" s="27">
         <v>1</v>
       </c>
     </row>
@@ -3625,15 +3694,15 @@
       <c r="E71" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F71" s="67" t="s">
+      <c r="F71" s="65" t="s">
         <v>89</v>
       </c>
       <c r="G71" s="8"/>
       <c r="H71" s="23"/>
       <c r="I71" s="23"/>
       <c r="J71" s="23"/>
-      <c r="K71" s="27"/>
-      <c r="L71" s="41"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="40"/>
       <c r="M71" s="24"/>
       <c r="N71" s="23"/>
       <c r="O71" s="23"/>
@@ -3641,25 +3710,33 @@
       <c r="Q71" s="23"/>
       <c r="R71" s="23"/>
       <c r="S71" s="23"/>
-      <c r="T71" s="28"/>
+      <c r="T71" s="27"/>
     </row>
     <row r="72" spans="1:20">
-      <c r="A72" s="5"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
+      <c r="A72" s="5">
+        <v>3</v>
+      </c>
+      <c r="B72" s="6">
+        <v>2</v>
+      </c>
+      <c r="C72" s="7">
+        <v>1</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="E72" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F72" s="67" t="s">
+      <c r="F72" s="65" t="s">
         <v>93</v>
       </c>
       <c r="G72" s="8"/>
       <c r="H72" s="23"/>
       <c r="I72" s="23"/>
       <c r="J72" s="23"/>
-      <c r="K72" s="27"/>
-      <c r="L72" s="41"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="40"/>
       <c r="M72" s="24"/>
       <c r="N72" s="23"/>
       <c r="O72" s="23"/>
@@ -3667,33 +3744,33 @@
       <c r="Q72" s="23"/>
       <c r="R72" s="23"/>
       <c r="S72" s="23"/>
-      <c r="T72" s="28"/>
+      <c r="T72" s="27"/>
     </row>
     <row r="73" spans="1:20" ht="15" thickBot="1">
-      <c r="A73" s="53">
-        <v>3</v>
-      </c>
-      <c r="B73" s="54">
+      <c r="A73" s="51">
+        <v>4</v>
+      </c>
+      <c r="B73" s="52">
         <v>2</v>
       </c>
-      <c r="C73" s="52">
-        <v>1</v>
-      </c>
-      <c r="D73" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="E73" s="52" t="s">
+      <c r="C73" s="50">
+        <v>1</v>
+      </c>
+      <c r="D73" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E73" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="F73" s="65" t="s">
+      <c r="F73" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="G73" s="55"/>
+      <c r="G73" s="53"/>
       <c r="H73" s="23"/>
       <c r="I73" s="23"/>
       <c r="J73" s="23"/>
-      <c r="K73" s="27"/>
-      <c r="L73" s="41"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="40"/>
       <c r="M73" s="24"/>
       <c r="N73" s="23"/>
       <c r="O73" s="23"/>
@@ -3701,23 +3778,25 @@
       <c r="Q73" s="23"/>
       <c r="R73" s="23"/>
       <c r="S73" s="23"/>
-      <c r="T73" s="28"/>
+      <c r="T73" s="27"/>
     </row>
     <row r="74" spans="1:20" ht="29.5" thickBot="1">
       <c r="A74" s="19">
         <v>1</v>
       </c>
-      <c r="B74" s="47"/>
+      <c r="B74" s="84">
+        <v>3</v>
+      </c>
       <c r="C74" s="20">
         <v>1</v>
       </c>
       <c r="D74" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E74" s="48" t="s">
+      <c r="E74" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="F74" s="62" t="s">
+      <c r="F74" s="60" t="s">
         <v>73</v>
       </c>
       <c r="G74" s="21">
@@ -3726,8 +3805,8 @@
       <c r="H74" s="23"/>
       <c r="I74" s="23"/>
       <c r="J74" s="23"/>
-      <c r="K74" s="27"/>
-      <c r="L74" s="41"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="40"/>
       <c r="M74" s="24"/>
       <c r="N74" s="23"/>
       <c r="O74" s="23"/>
@@ -3735,20 +3814,20 @@
       <c r="Q74" s="23"/>
       <c r="R74" s="23"/>
       <c r="S74" s="23"/>
-      <c r="T74" s="28"/>
+      <c r="T74" s="27"/>
     </row>
     <row r="75" spans="1:20">
       <c r="A75" s="24"/>
-      <c r="B75" s="26"/>
+      <c r="B75" s="25"/>
       <c r="C75" s="23"/>
       <c r="D75" s="23"/>
-      <c r="E75" s="27"/>
+      <c r="E75" s="26"/>
       <c r="F75" s="23"/>
       <c r="H75" s="23"/>
       <c r="I75" s="23"/>
       <c r="J75" s="23"/>
-      <c r="K75" s="27"/>
-      <c r="L75" s="41"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="40"/>
       <c r="M75" s="24"/>
       <c r="N75" s="23"/>
       <c r="O75" s="23"/>
@@ -3756,7 +3835,7 @@
       <c r="Q75" s="23"/>
       <c r="R75" s="23"/>
       <c r="S75" s="23"/>
-      <c r="T75" s="28"/>
+      <c r="T75" s="27"/>
     </row>
     <row r="76" spans="1:20">
       <c r="A76" s="24"/>
@@ -3768,8 +3847,8 @@
       <c r="H76" s="23"/>
       <c r="I76" s="23"/>
       <c r="J76" s="23"/>
-      <c r="K76" s="27"/>
-      <c r="L76" s="41"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="40"/>
       <c r="M76" s="24"/>
       <c r="N76" s="23"/>
       <c r="O76" s="23"/>
@@ -3777,7 +3856,7 @@
       <c r="Q76" s="23"/>
       <c r="R76" s="23"/>
       <c r="S76" s="23"/>
-      <c r="T76" s="28"/>
+      <c r="T76" s="27"/>
     </row>
     <row r="77" spans="1:20" ht="58">
       <c r="A77" s="24"/>
@@ -3793,10 +3872,10 @@
         <v>83</v>
       </c>
       <c r="J77" s="23"/>
-      <c r="K77" s="27" t="s">
+      <c r="K77" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="L77" s="41" t="s">
+      <c r="L77" s="40" t="s">
         <v>34</v>
       </c>
       <c r="M77" s="24"/>
@@ -3806,7 +3885,7 @@
       <c r="Q77" s="23"/>
       <c r="R77" s="23"/>
       <c r="S77" s="23"/>
-      <c r="T77" s="28"/>
+      <c r="T77" s="27"/>
     </row>
     <row r="78" spans="1:20" ht="58">
       <c r="A78" s="24"/>
@@ -3822,10 +3901,10 @@
         <v>84</v>
       </c>
       <c r="J78" s="23"/>
-      <c r="K78" s="27" t="s">
+      <c r="K78" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="L78" s="41" t="s">
+      <c r="L78" s="40" t="s">
         <v>35</v>
       </c>
       <c r="M78" s="24"/>
@@ -3835,7 +3914,7 @@
       <c r="Q78" s="23"/>
       <c r="R78" s="23"/>
       <c r="S78" s="23"/>
-      <c r="T78" s="28"/>
+      <c r="T78" s="27"/>
     </row>
     <row r="79" spans="1:20" ht="58">
       <c r="A79" s="24"/>
@@ -3851,10 +3930,10 @@
         <v>85</v>
       </c>
       <c r="J79" s="23"/>
-      <c r="K79" s="27" t="s">
+      <c r="K79" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="L79" s="41" t="s">
+      <c r="L79" s="40" t="s">
         <v>36</v>
       </c>
       <c r="M79" s="24"/>
@@ -3864,7 +3943,7 @@
       <c r="Q79" s="23"/>
       <c r="R79" s="23"/>
       <c r="S79" s="23"/>
-      <c r="T79" s="28"/>
+      <c r="T79" s="27"/>
     </row>
     <row r="80" spans="1:20" ht="58">
       <c r="A80" s="24"/>
@@ -3880,10 +3959,10 @@
         <v>77</v>
       </c>
       <c r="J80" s="23"/>
-      <c r="K80" s="27" t="s">
+      <c r="K80" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="L80" s="41" t="s">
+      <c r="L80" s="40" t="s">
         <v>37</v>
       </c>
       <c r="M80" s="24"/>
@@ -3893,7 +3972,7 @@
       <c r="Q80" s="23"/>
       <c r="R80" s="23"/>
       <c r="S80" s="23"/>
-      <c r="T80" s="28"/>
+      <c r="T80" s="27"/>
     </row>
     <row r="81" spans="1:20">
       <c r="A81" s="24"/>
@@ -3905,8 +3984,8 @@
       <c r="H81" s="23"/>
       <c r="I81" s="23"/>
       <c r="J81" s="23"/>
-      <c r="K81" s="27"/>
-      <c r="L81" s="41"/>
+      <c r="K81" s="26"/>
+      <c r="L81" s="40"/>
       <c r="M81" s="24"/>
       <c r="N81" s="23"/>
       <c r="O81" s="23"/>
@@ -3914,7 +3993,7 @@
       <c r="Q81" s="23"/>
       <c r="R81" s="23"/>
       <c r="S81" s="23"/>
-      <c r="T81" s="28"/>
+      <c r="T81" s="27"/>
     </row>
     <row r="82" spans="1:20">
       <c r="A82" s="24"/>
@@ -3926,8 +4005,8 @@
       <c r="H82" s="23"/>
       <c r="I82" s="23"/>
       <c r="J82" s="23"/>
-      <c r="K82" s="27"/>
-      <c r="L82" s="41"/>
+      <c r="K82" s="26"/>
+      <c r="L82" s="40"/>
       <c r="M82" s="24"/>
       <c r="N82" s="23"/>
       <c r="O82" s="23"/>
@@ -3935,7 +4014,7 @@
       <c r="Q82" s="23"/>
       <c r="R82" s="23"/>
       <c r="S82" s="23"/>
-      <c r="T82" s="28"/>
+      <c r="T82" s="27"/>
     </row>
     <row r="83" spans="1:20">
       <c r="A83" s="24"/>
@@ -3947,8 +4026,8 @@
       <c r="H83" s="23"/>
       <c r="I83" s="23"/>
       <c r="J83" s="23"/>
-      <c r="K83" s="27"/>
-      <c r="L83" s="41"/>
+      <c r="K83" s="26"/>
+      <c r="L83" s="40"/>
       <c r="M83" s="24"/>
       <c r="N83" s="23"/>
       <c r="O83" s="23"/>
@@ -3956,7 +4035,7 @@
       <c r="Q83" s="23"/>
       <c r="R83" s="23"/>
       <c r="S83" s="23"/>
-      <c r="T83" s="28"/>
+      <c r="T83" s="27"/>
     </row>
     <row r="84" spans="1:20" ht="15" thickBot="1">
       <c r="A84" s="24"/>
@@ -3968,8 +4047,8 @@
       <c r="H84" s="23"/>
       <c r="I84" s="23"/>
       <c r="J84" s="23"/>
-      <c r="K84" s="27"/>
-      <c r="L84" s="41"/>
+      <c r="K84" s="26"/>
+      <c r="L84" s="40"/>
       <c r="M84" s="24"/>
       <c r="N84" s="23"/>
       <c r="O84" s="23"/>
@@ -3977,7 +4056,7 @@
       <c r="Q84" s="23"/>
       <c r="R84" s="23"/>
       <c r="S84" s="23"/>
-      <c r="T84" s="28"/>
+      <c r="T84" s="27"/>
     </row>
     <row r="85" spans="1:20" ht="72.5">
       <c r="A85" s="4">
@@ -3995,7 +4074,7 @@
       <c r="E85" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F85" s="60" t="s">
+      <c r="F85" s="58" t="s">
         <v>95</v>
       </c>
       <c r="G85" s="3"/>
@@ -4006,10 +4085,10 @@
         <v>76</v>
       </c>
       <c r="J85" s="23"/>
-      <c r="K85" s="27" t="s">
+      <c r="K85" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L85" s="41" t="s">
+      <c r="L85" s="40" t="s">
         <v>37</v>
       </c>
       <c r="M85" s="24" t="s">
@@ -4021,13 +4100,13 @@
       <c r="O85" s="23"/>
       <c r="P85" s="23"/>
       <c r="Q85" s="23"/>
-      <c r="R85" s="27" t="s">
+      <c r="R85" s="26" t="s">
         <v>102</v>
       </c>
       <c r="S85" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="T85" s="28">
+      <c r="T85" s="27">
         <v>1</v>
       </c>
     </row>
@@ -4047,15 +4126,15 @@
       <c r="E86" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F86" s="67" t="s">
+      <c r="F86" s="65" t="s">
         <v>89</v>
       </c>
       <c r="G86" s="8"/>
       <c r="H86" s="23"/>
       <c r="I86" s="23"/>
       <c r="J86" s="23"/>
-      <c r="K86" s="27"/>
-      <c r="L86" s="41"/>
+      <c r="K86" s="26"/>
+      <c r="L86" s="40"/>
       <c r="M86" s="24"/>
       <c r="N86" s="23"/>
       <c r="O86" s="23"/>
@@ -4063,25 +4142,31 @@
       <c r="Q86" s="23"/>
       <c r="R86" s="23"/>
       <c r="S86" s="23"/>
-      <c r="T86" s="28"/>
+      <c r="T86" s="27"/>
     </row>
     <row r="87" spans="1:20">
       <c r="A87" s="5"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
+      <c r="B87" s="6">
+        <v>2</v>
+      </c>
+      <c r="C87" s="7">
+        <v>1</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="E87" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F87" s="67" t="s">
+      <c r="F87" s="65" t="s">
         <v>93</v>
       </c>
       <c r="G87" s="8"/>
       <c r="H87" s="23"/>
       <c r="I87" s="23"/>
       <c r="J87" s="23"/>
-      <c r="K87" s="27"/>
-      <c r="L87" s="41"/>
+      <c r="K87" s="26"/>
+      <c r="L87" s="40"/>
       <c r="M87" s="24"/>
       <c r="N87" s="23"/>
       <c r="O87" s="23"/>
@@ -4089,33 +4174,33 @@
       <c r="Q87" s="23"/>
       <c r="R87" s="23"/>
       <c r="S87" s="23"/>
-      <c r="T87" s="28"/>
+      <c r="T87" s="27"/>
     </row>
     <row r="88" spans="1:20" ht="15" thickBot="1">
-      <c r="A88" s="53">
+      <c r="A88" s="51">
         <v>3</v>
       </c>
-      <c r="B88" s="54">
+      <c r="B88" s="52">
         <v>2</v>
       </c>
-      <c r="C88" s="52">
-        <v>1</v>
-      </c>
-      <c r="D88" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="E88" s="52" t="s">
+      <c r="C88" s="50">
+        <v>1</v>
+      </c>
+      <c r="D88" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E88" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="F88" s="65" t="s">
+      <c r="F88" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="G88" s="55"/>
+      <c r="G88" s="53"/>
       <c r="H88" s="23"/>
       <c r="I88" s="23"/>
       <c r="J88" s="23"/>
-      <c r="K88" s="27"/>
-      <c r="L88" s="41"/>
+      <c r="K88" s="26"/>
+      <c r="L88" s="40"/>
       <c r="M88" s="24"/>
       <c r="N88" s="23"/>
       <c r="O88" s="23"/>
@@ -4123,33 +4208,35 @@
       <c r="Q88" s="23"/>
       <c r="R88" s="23"/>
       <c r="S88" s="23"/>
-      <c r="T88" s="28"/>
+      <c r="T88" s="27"/>
     </row>
     <row r="89" spans="1:20" ht="29">
-      <c r="A89" s="49">
-        <v>1</v>
-      </c>
-      <c r="B89" s="25"/>
+      <c r="A89" s="47">
+        <v>1</v>
+      </c>
+      <c r="B89" s="82">
+        <v>3</v>
+      </c>
       <c r="C89" s="22">
         <v>1</v>
       </c>
       <c r="D89" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E89" s="50" t="s">
+      <c r="E89" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="F89" s="63" t="s">
+      <c r="F89" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="G89" s="51">
+      <c r="G89" s="49">
         <v>11111</v>
       </c>
       <c r="H89" s="23"/>
       <c r="I89" s="23"/>
       <c r="J89" s="23"/>
-      <c r="K89" s="27"/>
-      <c r="L89" s="41"/>
+      <c r="K89" s="26"/>
+      <c r="L89" s="40"/>
       <c r="M89" s="24"/>
       <c r="N89" s="23"/>
       <c r="O89" s="23"/>
@@ -4157,13 +4244,15 @@
       <c r="Q89" s="23"/>
       <c r="R89" s="23"/>
       <c r="S89" s="23"/>
-      <c r="T89" s="28"/>
+      <c r="T89" s="27"/>
     </row>
     <row r="90" spans="1:20" ht="29.5" thickBot="1">
       <c r="A90" s="10">
         <v>2</v>
       </c>
-      <c r="B90" s="11"/>
+      <c r="B90" s="83">
+        <v>3</v>
+      </c>
       <c r="C90" s="12">
         <v>2</v>
       </c>
@@ -4173,7 +4262,7 @@
       <c r="E90" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="F90" s="64" t="s">
+      <c r="F90" s="62" t="s">
         <v>74</v>
       </c>
       <c r="G90" s="14">
@@ -4182,8 +4271,8 @@
       <c r="H90" s="23"/>
       <c r="I90" s="23"/>
       <c r="J90" s="23"/>
-      <c r="K90" s="27"/>
-      <c r="L90" s="41"/>
+      <c r="K90" s="26"/>
+      <c r="L90" s="40"/>
       <c r="M90" s="24"/>
       <c r="N90" s="23"/>
       <c r="O90" s="23"/>
@@ -4191,7 +4280,7 @@
       <c r="Q90" s="23"/>
       <c r="R90" s="23"/>
       <c r="S90" s="23"/>
-      <c r="T90" s="28"/>
+      <c r="T90" s="27"/>
     </row>
     <row r="91" spans="1:20">
       <c r="A91" s="24"/>
@@ -4203,8 +4292,8 @@
       <c r="H91" s="23"/>
       <c r="I91" s="23"/>
       <c r="J91" s="23"/>
-      <c r="K91" s="27"/>
-      <c r="L91" s="41"/>
+      <c r="K91" s="26"/>
+      <c r="L91" s="40"/>
       <c r="M91" s="24"/>
       <c r="N91" s="23"/>
       <c r="O91" s="23"/>
@@ -4212,7 +4301,7 @@
       <c r="Q91" s="23"/>
       <c r="R91" s="23"/>
       <c r="S91" s="23"/>
-      <c r="T91" s="28"/>
+      <c r="T91" s="27"/>
     </row>
     <row r="92" spans="1:20" ht="44" thickBot="1">
       <c r="A92" s="24"/>
@@ -4231,7 +4320,7 @@
         <v>38</v>
       </c>
       <c r="K92" s="23"/>
-      <c r="L92" s="41" t="s">
+      <c r="L92" s="40" t="s">
         <v>39</v>
       </c>
       <c r="M92" s="24"/>
@@ -4241,7 +4330,7 @@
       <c r="Q92" s="23"/>
       <c r="R92" s="23"/>
       <c r="S92" s="23"/>
-      <c r="T92" s="28"/>
+      <c r="T92" s="27"/>
     </row>
     <row r="93" spans="1:20" ht="72.5">
       <c r="A93" s="4">
@@ -4259,7 +4348,7 @@
       <c r="E93" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F93" s="60" t="s">
+      <c r="F93" s="58" t="s">
         <v>95</v>
       </c>
       <c r="G93" s="3"/>
@@ -4273,7 +4362,7 @@
         <v>40</v>
       </c>
       <c r="K93" s="23"/>
-      <c r="L93" s="41" t="s">
+      <c r="L93" s="40" t="s">
         <v>39</v>
       </c>
       <c r="M93" s="24" t="s">
@@ -4285,13 +4374,13 @@
       <c r="O93" s="23"/>
       <c r="P93" s="23"/>
       <c r="Q93" s="23"/>
-      <c r="R93" s="27" t="s">
+      <c r="R93" s="26" t="s">
         <v>102</v>
       </c>
       <c r="S93" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="T93" s="28">
+      <c r="T93" s="27">
         <v>1</v>
       </c>
     </row>
@@ -4311,7 +4400,7 @@
       <c r="E94" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F94" s="67" t="s">
+      <c r="F94" s="65" t="s">
         <v>89</v>
       </c>
       <c r="G94" s="8"/>
@@ -4319,7 +4408,7 @@
       <c r="I94" s="23"/>
       <c r="J94" s="23"/>
       <c r="K94" s="23"/>
-      <c r="L94" s="41"/>
+      <c r="L94" s="40"/>
       <c r="M94" s="24"/>
       <c r="N94" s="23"/>
       <c r="O94" s="23"/>
@@ -4327,17 +4416,25 @@
       <c r="Q94" s="23"/>
       <c r="R94" s="23"/>
       <c r="S94" s="23"/>
-      <c r="T94" s="28"/>
+      <c r="T94" s="27"/>
     </row>
     <row r="95" spans="1:20">
-      <c r="A95" s="5"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
+      <c r="A95" s="5">
+        <v>3</v>
+      </c>
+      <c r="B95" s="6">
+        <v>2</v>
+      </c>
+      <c r="C95" s="7">
+        <v>1</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="E95" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F95" s="67" t="s">
+      <c r="F95" s="65" t="s">
         <v>93</v>
       </c>
       <c r="G95" s="8"/>
@@ -4345,7 +4442,7 @@
       <c r="I95" s="23"/>
       <c r="J95" s="23"/>
       <c r="K95" s="23"/>
-      <c r="L95" s="41"/>
+      <c r="L95" s="40"/>
       <c r="M95" s="24"/>
       <c r="N95" s="23"/>
       <c r="O95" s="23"/>
@@ -4353,33 +4450,33 @@
       <c r="Q95" s="23"/>
       <c r="R95" s="23"/>
       <c r="S95" s="23"/>
-      <c r="T95" s="28"/>
+      <c r="T95" s="27"/>
     </row>
     <row r="96" spans="1:20" ht="15" thickBot="1">
-      <c r="A96" s="53">
-        <v>3</v>
-      </c>
-      <c r="B96" s="54">
+      <c r="A96" s="51">
+        <v>4</v>
+      </c>
+      <c r="B96" s="52">
         <v>2</v>
       </c>
-      <c r="C96" s="52">
-        <v>1</v>
-      </c>
-      <c r="D96" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="E96" s="52" t="s">
+      <c r="C96" s="50">
+        <v>1</v>
+      </c>
+      <c r="D96" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E96" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="F96" s="65" t="s">
+      <c r="F96" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="G96" s="55"/>
+      <c r="G96" s="53"/>
       <c r="H96" s="23"/>
       <c r="I96" s="23"/>
       <c r="J96" s="23"/>
       <c r="K96" s="23"/>
-      <c r="L96" s="41"/>
+      <c r="L96" s="40"/>
       <c r="M96" s="24"/>
       <c r="N96" s="23"/>
       <c r="O96" s="23"/>
@@ -4387,33 +4484,35 @@
       <c r="Q96" s="23"/>
       <c r="R96" s="23"/>
       <c r="S96" s="23"/>
-      <c r="T96" s="28"/>
+      <c r="T96" s="27"/>
     </row>
     <row r="97" spans="1:21" ht="29">
-      <c r="A97" s="49">
-        <v>1</v>
-      </c>
-      <c r="B97" s="25"/>
+      <c r="A97" s="47">
+        <v>1</v>
+      </c>
+      <c r="B97" s="82">
+        <v>3</v>
+      </c>
       <c r="C97" s="22">
         <v>1</v>
       </c>
       <c r="D97" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E97" s="50" t="s">
+      <c r="E97" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="F97" s="63" t="s">
+      <c r="F97" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="G97" s="51">
+      <c r="G97" s="49">
         <v>11111</v>
       </c>
       <c r="H97" s="23"/>
       <c r="I97" s="23"/>
       <c r="J97" s="23"/>
       <c r="K97" s="23"/>
-      <c r="L97" s="41"/>
+      <c r="L97" s="40"/>
       <c r="M97" s="24"/>
       <c r="N97" s="23"/>
       <c r="O97" s="23"/>
@@ -4421,13 +4520,15 @@
       <c r="Q97" s="23"/>
       <c r="R97" s="23"/>
       <c r="S97" s="23"/>
-      <c r="T97" s="28"/>
+      <c r="T97" s="27"/>
     </row>
     <row r="98" spans="1:21" ht="29.5" thickBot="1">
       <c r="A98" s="10">
         <v>2</v>
       </c>
-      <c r="B98" s="11"/>
+      <c r="B98" s="83">
+        <v>3</v>
+      </c>
       <c r="C98" s="12">
         <v>2</v>
       </c>
@@ -4437,7 +4538,7 @@
       <c r="E98" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="F98" s="64" t="s">
+      <c r="F98" s="62" t="s">
         <v>74</v>
       </c>
       <c r="G98" s="14">
@@ -4447,7 +4548,7 @@
       <c r="I98" s="23"/>
       <c r="J98" s="23"/>
       <c r="K98" s="23"/>
-      <c r="L98" s="41"/>
+      <c r="L98" s="40"/>
       <c r="M98" s="24"/>
       <c r="N98" s="23"/>
       <c r="O98" s="23"/>
@@ -4455,7 +4556,7 @@
       <c r="Q98" s="23"/>
       <c r="R98" s="23"/>
       <c r="S98" s="23"/>
-      <c r="T98" s="28"/>
+      <c r="T98" s="27"/>
     </row>
     <row r="99" spans="1:21">
       <c r="A99" s="24"/>
@@ -4468,7 +4569,7 @@
       <c r="I99" s="23"/>
       <c r="J99" s="23"/>
       <c r="K99" s="23"/>
-      <c r="L99" s="41"/>
+      <c r="L99" s="40"/>
       <c r="M99" s="24"/>
       <c r="N99" s="23"/>
       <c r="O99" s="23"/>
@@ -4476,7 +4577,7 @@
       <c r="Q99" s="23"/>
       <c r="R99" s="23"/>
       <c r="S99" s="23"/>
-      <c r="T99" s="28"/>
+      <c r="T99" s="27"/>
     </row>
     <row r="100" spans="1:21">
       <c r="A100" s="24"/>
@@ -4489,7 +4590,7 @@
       <c r="I100" s="23"/>
       <c r="J100" s="23"/>
       <c r="K100" s="23"/>
-      <c r="L100" s="41"/>
+      <c r="L100" s="40"/>
       <c r="M100" s="24"/>
       <c r="N100" s="23"/>
       <c r="O100" s="23"/>
@@ -4497,7 +4598,7 @@
       <c r="Q100" s="23"/>
       <c r="R100" s="23"/>
       <c r="S100" s="23"/>
-      <c r="T100" s="28"/>
+      <c r="T100" s="27"/>
     </row>
     <row r="101" spans="1:21" ht="43.5">
       <c r="A101" s="24"/>
@@ -4516,7 +4617,7 @@
         <v>41</v>
       </c>
       <c r="K101" s="23"/>
-      <c r="L101" s="41" t="s">
+      <c r="L101" s="40" t="s">
         <v>42</v>
       </c>
       <c r="M101" s="24"/>
@@ -4526,7 +4627,7 @@
       <c r="Q101" s="23"/>
       <c r="R101" s="23"/>
       <c r="S101" s="23"/>
-      <c r="T101" s="28"/>
+      <c r="T101" s="27"/>
     </row>
     <row r="102" spans="1:21" ht="15" thickBot="1">
       <c r="A102" s="24"/>
@@ -4539,7 +4640,7 @@
       <c r="I102" s="23"/>
       <c r="J102" s="23"/>
       <c r="K102" s="23"/>
-      <c r="L102" s="41"/>
+      <c r="L102" s="40"/>
       <c r="M102" s="24"/>
       <c r="N102" s="23"/>
       <c r="O102" s="23"/>
@@ -4547,7 +4648,7 @@
       <c r="Q102" s="23"/>
       <c r="R102" s="23"/>
       <c r="S102" s="23"/>
-      <c r="T102" s="28"/>
+      <c r="T102" s="27"/>
     </row>
     <row r="103" spans="1:21" ht="72.5">
       <c r="A103" s="4">
@@ -4565,7 +4666,7 @@
       <c r="E103" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F103" s="60" t="s">
+      <c r="F103" s="58" t="s">
         <v>95</v>
       </c>
       <c r="G103" s="3"/>
@@ -4579,7 +4680,7 @@
         <v>43</v>
       </c>
       <c r="K103" s="23"/>
-      <c r="L103" s="41" t="s">
+      <c r="L103" s="40" t="s">
         <v>42</v>
       </c>
       <c r="M103" s="24" t="s">
@@ -4591,13 +4692,13 @@
       <c r="O103" s="23"/>
       <c r="P103" s="23"/>
       <c r="Q103" s="23"/>
-      <c r="R103" s="27" t="s">
+      <c r="R103" s="26" t="s">
         <v>102</v>
       </c>
       <c r="S103" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="T103" s="28">
+      <c r="T103" s="27">
         <v>1</v>
       </c>
     </row>
@@ -4617,7 +4718,7 @@
       <c r="E104" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F104" s="67" t="s">
+      <c r="F104" s="65" t="s">
         <v>89</v>
       </c>
       <c r="G104" s="8"/>
@@ -4625,7 +4726,7 @@
       <c r="I104" s="23"/>
       <c r="J104" s="23"/>
       <c r="K104" s="23"/>
-      <c r="L104" s="41"/>
+      <c r="L104" s="40"/>
       <c r="M104" s="24"/>
       <c r="N104" s="23"/>
       <c r="O104" s="23"/>
@@ -4633,17 +4734,25 @@
       <c r="Q104" s="23"/>
       <c r="R104" s="23"/>
       <c r="S104" s="23"/>
-      <c r="T104" s="28"/>
+      <c r="T104" s="27"/>
     </row>
     <row r="105" spans="1:21">
-      <c r="A105" s="5"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
+      <c r="A105" s="5">
+        <v>3</v>
+      </c>
+      <c r="B105" s="6">
+        <v>2</v>
+      </c>
+      <c r="C105" s="7">
+        <v>1</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="E105" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F105" s="67" t="s">
+      <c r="F105" s="65" t="s">
         <v>93</v>
       </c>
       <c r="G105" s="8"/>
@@ -4651,7 +4760,7 @@
       <c r="I105" s="23"/>
       <c r="J105" s="23"/>
       <c r="K105" s="23"/>
-      <c r="L105" s="41"/>
+      <c r="L105" s="40"/>
       <c r="M105" s="24"/>
       <c r="N105" s="23"/>
       <c r="O105" s="23"/>
@@ -4659,33 +4768,33 @@
       <c r="Q105" s="23"/>
       <c r="R105" s="23"/>
       <c r="S105" s="23"/>
-      <c r="T105" s="28"/>
+      <c r="T105" s="27"/>
     </row>
     <row r="106" spans="1:21" ht="15" thickBot="1">
-      <c r="A106" s="53">
-        <v>3</v>
-      </c>
-      <c r="B106" s="54">
+      <c r="A106" s="51">
+        <v>4</v>
+      </c>
+      <c r="B106" s="52">
         <v>2</v>
       </c>
-      <c r="C106" s="52">
-        <v>1</v>
-      </c>
-      <c r="D106" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="E106" s="52" t="s">
+      <c r="C106" s="50">
+        <v>1</v>
+      </c>
+      <c r="D106" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E106" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="F106" s="65" t="s">
+      <c r="F106" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="G106" s="55"/>
+      <c r="G106" s="53"/>
       <c r="H106" s="23"/>
       <c r="I106" s="23"/>
       <c r="J106" s="23"/>
       <c r="K106" s="23"/>
-      <c r="L106" s="41"/>
+      <c r="L106" s="40"/>
       <c r="M106" s="24"/>
       <c r="N106" s="23"/>
       <c r="O106" s="23"/>
@@ -4693,33 +4802,35 @@
       <c r="Q106" s="23"/>
       <c r="R106" s="23"/>
       <c r="S106" s="23"/>
-      <c r="T106" s="28"/>
+      <c r="T106" s="27"/>
     </row>
     <row r="107" spans="1:21" ht="29">
-      <c r="A107" s="49">
-        <v>1</v>
-      </c>
-      <c r="B107" s="25"/>
+      <c r="A107" s="47">
+        <v>1</v>
+      </c>
+      <c r="B107" s="82">
+        <v>3</v>
+      </c>
       <c r="C107" s="22">
         <v>1</v>
       </c>
       <c r="D107" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E107" s="50" t="s">
+      <c r="E107" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="F107" s="63" t="s">
+      <c r="F107" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="G107" s="51">
+      <c r="G107" s="49">
         <v>11111</v>
       </c>
       <c r="H107" s="23"/>
       <c r="I107" s="23"/>
       <c r="J107" s="23"/>
       <c r="K107" s="23"/>
-      <c r="L107" s="41"/>
+      <c r="L107" s="40"/>
       <c r="M107" s="24"/>
       <c r="N107" s="23"/>
       <c r="O107" s="23"/>
@@ -4727,13 +4838,15 @@
       <c r="Q107" s="23"/>
       <c r="R107" s="23"/>
       <c r="S107" s="23"/>
-      <c r="T107" s="28"/>
+      <c r="T107" s="27"/>
     </row>
     <row r="108" spans="1:21" ht="29.5" thickBot="1">
       <c r="A108" s="10">
         <v>2</v>
       </c>
-      <c r="B108" s="11"/>
+      <c r="B108" s="83">
+        <v>3</v>
+      </c>
       <c r="C108" s="12">
         <v>2</v>
       </c>
@@ -4743,7 +4856,7 @@
       <c r="E108" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="F108" s="64" t="s">
+      <c r="F108" s="62" t="s">
         <v>74</v>
       </c>
       <c r="G108" s="14">
@@ -4753,7 +4866,7 @@
       <c r="I108" s="23"/>
       <c r="J108" s="23"/>
       <c r="K108" s="23"/>
-      <c r="L108" s="41"/>
+      <c r="L108" s="40"/>
       <c r="M108" s="24"/>
       <c r="N108" s="23"/>
       <c r="O108" s="23"/>
@@ -4761,50 +4874,50 @@
       <c r="Q108" s="23"/>
       <c r="R108" s="23"/>
       <c r="S108" s="23"/>
-      <c r="T108" s="28"/>
+      <c r="T108" s="27"/>
     </row>
     <row r="109" spans="1:21">
       <c r="A109" s="24"/>
-      <c r="B109" s="26"/>
+      <c r="B109" s="25"/>
       <c r="C109" s="23"/>
       <c r="D109" s="23"/>
-      <c r="E109" s="27"/>
+      <c r="E109" s="26"/>
       <c r="F109" s="23"/>
       <c r="H109" s="23"/>
       <c r="I109" s="23"/>
       <c r="J109" s="23"/>
       <c r="K109" s="23"/>
-      <c r="L109" s="41"/>
+      <c r="L109" s="40"/>
       <c r="M109" s="24"/>
-      <c r="N109" s="26"/>
-      <c r="O109" s="26"/>
-      <c r="P109" s="26"/>
-      <c r="Q109" s="26"/>
+      <c r="N109" s="25"/>
+      <c r="O109" s="25"/>
+      <c r="P109" s="25"/>
+      <c r="Q109" s="25"/>
       <c r="R109" s="23"/>
       <c r="S109" s="23"/>
-      <c r="T109" s="41"/>
+      <c r="T109" s="40"/>
       <c r="U109" s="23"/>
     </row>
     <row r="110" spans="1:21">
       <c r="A110" s="24"/>
-      <c r="B110" s="26"/>
+      <c r="B110" s="25"/>
       <c r="C110" s="23"/>
       <c r="D110" s="23"/>
-      <c r="E110" s="27"/>
+      <c r="E110" s="26"/>
       <c r="F110" s="23"/>
       <c r="H110" s="23"/>
       <c r="I110" s="23"/>
       <c r="J110" s="23"/>
       <c r="K110" s="23"/>
-      <c r="L110" s="41"/>
+      <c r="L110" s="40"/>
       <c r="M110" s="24"/>
-      <c r="N110" s="26"/>
-      <c r="O110" s="26"/>
-      <c r="P110" s="26"/>
-      <c r="Q110" s="26"/>
+      <c r="N110" s="25"/>
+      <c r="O110" s="25"/>
+      <c r="P110" s="25"/>
+      <c r="Q110" s="25"/>
       <c r="R110" s="23"/>
       <c r="S110" s="23"/>
-      <c r="T110" s="41"/>
+      <c r="T110" s="40"/>
       <c r="U110" s="23"/>
     </row>
     <row r="111" spans="1:21" ht="87.5" thickBot="1">
@@ -4823,7 +4936,7 @@
         <v>44</v>
       </c>
       <c r="K111" s="18"/>
-      <c r="L111" s="42" t="s">
+      <c r="L111" s="41" t="s">
         <v>45</v>
       </c>
       <c r="M111" s="17"/>
@@ -4833,7 +4946,7 @@
       <c r="Q111" s="18"/>
       <c r="R111" s="18"/>
       <c r="S111" s="18"/>
-      <c r="T111" s="39"/>
+      <c r="T111" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="8">
